--- a/database/industries/darou/dejaber/product/yearly_seprated.xlsx
+++ b/database/industries/darou/dejaber/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE6E027-43A8-4437-B587-C88CF000AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دجابر-داروسازی‌ جابرابن‌حیان‌</t>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +389,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -400,7 +401,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -447,6 +448,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -482,6 +500,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -776,8 +811,8 @@
       <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
+      <c r="F11" s="11">
+        <v>2320530</v>
       </c>
       <c r="G11" s="11">
         <v>2145117</v>
@@ -800,8 +835,8 @@
       <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
+      <c r="F12" s="13">
+        <v>5542134</v>
       </c>
       <c r="G12" s="13">
         <v>5950417</v>
@@ -824,8 +859,8 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
+      <c r="F13" s="11">
+        <v>1700223</v>
       </c>
       <c r="G13" s="11">
         <v>2554533</v>
@@ -848,8 +883,8 @@
       <c r="E14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
+      <c r="F14" s="13">
+        <v>127875645</v>
       </c>
       <c r="G14" s="13">
         <v>203426820</v>
@@ -872,8 +907,8 @@
       <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
+      <c r="F15" s="11">
+        <v>45472987</v>
       </c>
       <c r="G15" s="11">
         <v>22841259</v>
@@ -896,8 +931,8 @@
       <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
+      <c r="F16" s="13">
+        <v>4221305</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
@@ -919,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="15">
-        <v>0</v>
+        <v>187132824</v>
       </c>
       <c r="G17" s="15">
         <v>236918146</v>
@@ -954,8 +989,8 @@
       <c r="E19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
+      <c r="F19" s="11">
+        <v>50000</v>
       </c>
       <c r="G19" s="11">
         <v>113793</v>
@@ -978,8 +1013,8 @@
       <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
+      <c r="F20" s="13">
+        <v>0</v>
       </c>
       <c r="G20" s="13">
         <v>1500</v>
@@ -1002,8 +1037,8 @@
       <c r="E21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>13</v>
+      <c r="F21" s="11">
+        <v>51700</v>
       </c>
       <c r="G21" s="11">
         <v>0</v>
@@ -1026,8 +1061,8 @@
       <c r="E22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>13</v>
+      <c r="F22" s="13">
+        <v>50000</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
@@ -1050,8 +1085,8 @@
       <c r="E23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
+      <c r="F23" s="11">
+        <v>308000</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
@@ -1073,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="17">
-        <v>0</v>
+        <v>459700</v>
       </c>
       <c r="G24" s="17">
         <v>115293</v>
@@ -1154,8 +1189,8 @@
       <c r="E28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>13</v>
+      <c r="F28" s="15">
+        <v>0</v>
       </c>
       <c r="G28" s="15">
         <v>0</v>
@@ -1176,8 +1211,8 @@
       <c r="E29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>13</v>
+      <c r="F29" s="17">
+        <v>0</v>
       </c>
       <c r="G29" s="17">
         <v>0</v>
@@ -1199,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>187592524</v>
       </c>
       <c r="G30" s="15">
         <v>237033439</v>
@@ -1296,8 +1331,8 @@
       <c r="E37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
+      <c r="F37" s="11">
+        <v>49275</v>
       </c>
       <c r="G37" s="11">
         <v>62177</v>
@@ -1320,8 +1355,8 @@
       <c r="E38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>13</v>
+      <c r="F38" s="13">
+        <v>509963</v>
       </c>
       <c r="G38" s="13">
         <v>668045</v>
@@ -1344,8 +1379,8 @@
       <c r="E39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>13</v>
+      <c r="F39" s="11">
+        <v>50795</v>
       </c>
       <c r="G39" s="11">
         <v>94459</v>
@@ -1368,8 +1403,8 @@
       <c r="E40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>13</v>
+      <c r="F40" s="13">
+        <v>394687</v>
       </c>
       <c r="G40" s="13">
         <v>738954</v>
@@ -1392,8 +1427,8 @@
       <c r="E41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>13</v>
+      <c r="F41" s="11">
+        <v>1438274</v>
       </c>
       <c r="G41" s="11">
         <v>797680</v>
@@ -1416,8 +1451,8 @@
       <c r="E42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>13</v>
+      <c r="F42" s="13">
+        <v>21439</v>
       </c>
       <c r="G42" s="13">
         <v>0</v>
@@ -1439,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="15">
-        <v>0</v>
+        <v>2464433</v>
       </c>
       <c r="G43" s="15">
         <v>2361315</v>
@@ -1474,8 +1509,8 @@
       <c r="E45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>13</v>
+      <c r="F45" s="11">
+        <v>980</v>
       </c>
       <c r="G45" s="11">
         <v>3668</v>
@@ -1498,8 +1533,8 @@
       <c r="E46" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>13</v>
+      <c r="F46" s="13">
+        <v>0</v>
       </c>
       <c r="G46" s="13">
         <v>550</v>
@@ -1522,8 +1557,8 @@
       <c r="E47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>13</v>
+      <c r="F47" s="11">
+        <v>1351</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
@@ -1546,8 +1581,8 @@
       <c r="E48" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>13</v>
+      <c r="F48" s="13">
+        <v>172</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
@@ -1570,8 +1605,8 @@
       <c r="E49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>13</v>
+      <c r="F49" s="11">
+        <v>4196</v>
       </c>
       <c r="G49" s="11">
         <v>0</v>
@@ -1593,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="17">
-        <v>0</v>
+        <v>6699</v>
       </c>
       <c r="G50" s="17">
         <v>4218</v>
@@ -1674,8 +1709,8 @@
       <c r="E54" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>13</v>
+      <c r="F54" s="15">
+        <v>-6219</v>
       </c>
       <c r="G54" s="15">
         <v>-511</v>
@@ -1698,8 +1733,8 @@
       <c r="E55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>13</v>
+      <c r="F55" s="17">
+        <v>-382855</v>
       </c>
       <c r="G55" s="17">
         <v>-343536</v>
@@ -1721,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="15">
-        <v>0</v>
+        <v>2082058</v>
       </c>
       <c r="G56" s="15">
         <v>2021486</v>
@@ -1818,8 +1853,8 @@
       <c r="E63" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>13</v>
+      <c r="F63" s="11">
+        <v>21234</v>
       </c>
       <c r="G63" s="11">
         <v>28985</v>
@@ -1842,8 +1877,8 @@
       <c r="E64" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>13</v>
+      <c r="F64" s="13">
+        <v>92016</v>
       </c>
       <c r="G64" s="13">
         <v>112269</v>
@@ -1866,8 +1901,8 @@
       <c r="E65" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>13</v>
+      <c r="F65" s="11">
+        <v>29875</v>
       </c>
       <c r="G65" s="11">
         <v>36977</v>
@@ -1890,8 +1925,8 @@
       <c r="E66" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>13</v>
+      <c r="F66" s="13">
+        <v>3086</v>
       </c>
       <c r="G66" s="13">
         <v>3633</v>
@@ -1914,8 +1949,8 @@
       <c r="E67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>13</v>
+      <c r="F67" s="11">
+        <v>31629</v>
       </c>
       <c r="G67" s="11">
         <v>34923</v>
@@ -1938,8 +1973,8 @@
       <c r="E68" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>13</v>
+      <c r="F68" s="13">
+        <v>5079</v>
       </c>
       <c r="G68" s="13">
         <v>0</v>
@@ -1974,8 +2009,8 @@
       <c r="E70" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="11" t="s">
-        <v>13</v>
+      <c r="F70" s="11">
+        <v>19600</v>
       </c>
       <c r="G70" s="11">
         <v>32234</v>
@@ -1998,8 +2033,8 @@
       <c r="E71" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>13</v>
+      <c r="F71" s="13">
+        <v>0</v>
       </c>
       <c r="G71" s="13">
         <v>366667</v>
@@ -2022,8 +2057,8 @@
       <c r="E72" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>13</v>
+      <c r="F72" s="11">
+        <v>26132</v>
       </c>
       <c r="G72" s="11">
         <v>0</v>
@@ -2046,8 +2081,8 @@
       <c r="E73" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>13</v>
+      <c r="F73" s="13">
+        <v>3440</v>
       </c>
       <c r="G73" s="13">
         <v>0</v>
@@ -2070,8 +2105,8 @@
       <c r="E74" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>13</v>
+      <c r="F74" s="11">
+        <v>13623</v>
       </c>
       <c r="G74" s="11">
         <v>0</v>
@@ -2204,8 +2239,8 @@
       <c r="E83" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>13</v>
+      <c r="F83" s="11">
+        <v>-34150</v>
       </c>
       <c r="G83" s="11">
         <v>-46489</v>
@@ -2228,8 +2263,8 @@
       <c r="E84" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>13</v>
+      <c r="F84" s="13">
+        <v>-289464</v>
       </c>
       <c r="G84" s="13">
         <v>-358283</v>
@@ -2252,8 +2287,8 @@
       <c r="E85" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="11" t="s">
-        <v>13</v>
+      <c r="F85" s="11">
+        <v>-43440</v>
       </c>
       <c r="G85" s="11">
         <v>-78218</v>
@@ -2276,8 +2311,8 @@
       <c r="E86" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>13</v>
+      <c r="F86" s="13">
+        <v>-278791</v>
       </c>
       <c r="G86" s="13">
         <v>-534648</v>
@@ -2300,8 +2335,8 @@
       <c r="E87" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>13</v>
+      <c r="F87" s="11">
+        <v>-678224</v>
       </c>
       <c r="G87" s="11">
         <v>-456585</v>
@@ -2324,8 +2359,8 @@
       <c r="E88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>13</v>
+      <c r="F88" s="13">
+        <v>-18478</v>
       </c>
       <c r="G88" s="13">
         <v>0</v>
@@ -2347,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="15">
-        <v>0</v>
+        <v>-1342547</v>
       </c>
       <c r="G89" s="15">
         <v>-1474223</v>
@@ -2382,8 +2417,8 @@
       <c r="E91" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>13</v>
+      <c r="F91" s="11">
+        <v>-755</v>
       </c>
       <c r="G91" s="11">
         <v>-2466</v>
@@ -2406,8 +2441,8 @@
       <c r="E92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>13</v>
+      <c r="F92" s="13">
+        <v>0</v>
       </c>
       <c r="G92" s="13">
         <v>-297</v>
@@ -2430,8 +2465,8 @@
       <c r="E93" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>13</v>
+      <c r="F93" s="11">
+        <v>-1831</v>
       </c>
       <c r="G93" s="11">
         <v>0</v>
@@ -2454,8 +2489,8 @@
       <c r="E94" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>13</v>
+      <c r="F94" s="13">
+        <v>-163</v>
       </c>
       <c r="G94" s="13">
         <v>0</v>
@@ -2478,8 +2513,8 @@
       <c r="E95" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="11" t="s">
-        <v>13</v>
+      <c r="F95" s="11">
+        <v>-2960</v>
       </c>
       <c r="G95" s="11">
         <v>0</v>
@@ -2501,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="17">
-        <v>0</v>
+        <v>-5709</v>
       </c>
       <c r="G96" s="17">
         <v>-2763</v>
@@ -2582,8 +2617,8 @@
       <c r="E100" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="15" t="s">
-        <v>13</v>
+      <c r="F100" s="15">
+        <v>0</v>
       </c>
       <c r="G100" s="15">
         <v>0</v>
@@ -2606,8 +2641,8 @@
       <c r="E101" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="17" t="s">
-        <v>13</v>
+      <c r="F101" s="17">
+        <v>0</v>
       </c>
       <c r="G101" s="17">
         <v>0</v>
@@ -2629,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="15">
-        <v>0</v>
+        <v>-1348256</v>
       </c>
       <c r="G102" s="15">
         <v>-1476986</v>
@@ -2726,8 +2761,8 @@
       <c r="E109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>13</v>
+      <c r="F109" s="11">
+        <v>15125</v>
       </c>
       <c r="G109" s="11">
         <v>15688</v>
@@ -2750,8 +2785,8 @@
       <c r="E110" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>13</v>
+      <c r="F110" s="13">
+        <v>220499</v>
       </c>
       <c r="G110" s="13">
         <v>309762</v>
@@ -2774,8 +2809,8 @@
       <c r="E111" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>13</v>
+      <c r="F111" s="11">
+        <v>7355</v>
       </c>
       <c r="G111" s="11">
         <v>16241</v>
@@ -2798,8 +2833,8 @@
       <c r="E112" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="13" t="s">
-        <v>13</v>
+      <c r="F112" s="13">
+        <v>115896</v>
       </c>
       <c r="G112" s="13">
         <v>204306</v>
@@ -2822,8 +2857,8 @@
       <c r="E113" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="11" t="s">
-        <v>13</v>
+      <c r="F113" s="11">
+        <v>760050</v>
       </c>
       <c r="G113" s="11">
         <v>341095</v>
@@ -2846,8 +2881,8 @@
       <c r="E114" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F114" s="13" t="s">
-        <v>13</v>
+      <c r="F114" s="13">
+        <v>2961</v>
       </c>
       <c r="G114" s="13">
         <v>0</v>
@@ -2869,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="15">
-        <v>0</v>
+        <v>1121886</v>
       </c>
       <c r="G115" s="15">
         <v>887092</v>
@@ -2904,8 +2939,8 @@
       <c r="E117" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F117" s="11" t="s">
-        <v>13</v>
+      <c r="F117" s="11">
+        <v>225</v>
       </c>
       <c r="G117" s="11">
         <v>1202</v>
@@ -2928,8 +2963,8 @@
       <c r="E118" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="13" t="s">
-        <v>13</v>
+      <c r="F118" s="13">
+        <v>0</v>
       </c>
       <c r="G118" s="13">
         <v>253</v>
@@ -2952,8 +2987,8 @@
       <c r="E119" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="11" t="s">
-        <v>13</v>
+      <c r="F119" s="11">
+        <v>-480</v>
       </c>
       <c r="G119" s="11">
         <v>0</v>
@@ -2976,8 +3011,8 @@
       <c r="E120" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="13" t="s">
-        <v>13</v>
+      <c r="F120" s="13">
+        <v>9</v>
       </c>
       <c r="G120" s="13">
         <v>0</v>
@@ -3000,8 +3035,8 @@
       <c r="E121" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="11" t="s">
-        <v>13</v>
+      <c r="F121" s="11">
+        <v>1236</v>
       </c>
       <c r="G121" s="11">
         <v>0</v>
@@ -3023,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="F122" s="17">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="G122" s="17">
         <v>1455</v>
@@ -3103,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="15">
-        <v>0</v>
+        <v>1122876</v>
       </c>
       <c r="G126" s="15">
         <v>888547</v>
